--- a/data/bani_random_sentences.xlsx
+++ b/data/bani_random_sentences.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>문장</t>
   </si>
@@ -53,6 +53,54 @@
   </si>
   <si>
     <t>~~</t>
+  </si>
+  <si>
+    <t>그랬구나</t>
+  </si>
+  <si>
+    <t>지금은 어때</t>
+  </si>
+  <si>
+    <t>내일은 더 빛날꺼야</t>
+  </si>
+  <si>
+    <t>오늘 바니모 예쁘다</t>
+  </si>
+  <si>
+    <t>바니굴에서 꾸렁내 나</t>
+  </si>
+  <si>
+    <t>아이쿠</t>
+  </si>
+  <si>
+    <t>꽃길만 걷자</t>
+  </si>
+  <si>
+    <t>아자아자</t>
+  </si>
+  <si>
+    <t>우리보면서 힘내</t>
+  </si>
+  <si>
+    <t>좋아해</t>
+  </si>
+  <si>
+    <t>긍정의 힘</t>
+  </si>
+  <si>
+    <t>할 수 있어</t>
+  </si>
+  <si>
+    <t>토끼풀이 어디갔지?</t>
+  </si>
+  <si>
+    <t>이야기 더 해줘</t>
+  </si>
+  <si>
+    <t>듣고 있어</t>
+  </si>
+  <si>
+    <t>행복하자 우리</t>
   </si>
 </sst>
 </file>
@@ -368,6 +416,86 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
